--- a/raw_data/三只松鼠分产品营收.xlsx
+++ b/raw_data/三只松鼠分产品营收.xlsx
@@ -1,173 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27927"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_CA99CF8B7E8C6C597E47A5924A5EFD4A9D4C3FAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="按产品(项目)分类"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="按产品(项目)分类" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="70">
   <si>
-    <t>按产品(项目)分类(证券代码：300783.SZ 名称：三只松鼠)</t>
-  </si>
-  <si>
-    <t>（单位：万元）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2022 中报</t>
-  </si>
-  <si>
-    <t>2021 年报</t>
-  </si>
-  <si>
-    <t>2020 年报</t>
-  </si>
-  <si>
-    <t>2019 年报</t>
-  </si>
-  <si>
-    <t>2018 年报</t>
-  </si>
-  <si>
-    <t>2017 年报</t>
-  </si>
-  <si>
-    <t>2016 年报</t>
-  </si>
-  <si>
-    <t>2015 年报</t>
-  </si>
-  <si>
-    <t>2014 年报</t>
-  </si>
-  <si>
-    <t>点击浏览</t>
-  </si>
-  <si>
-    <t>货币类型</t>
-  </si>
-  <si>
-    <t>CNY</t>
+    <t>年份</t>
   </si>
   <si>
     <t>营业收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        坚果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其他业务</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        烘焙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        综合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        肉制品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        果干</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其它</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        零食</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        礼盒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        干果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        花茶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        合计</t>
-  </si>
-  <si>
-    <t>营业成本</t>
-  </si>
-  <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>毛利率(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        坚果(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其他业务(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        烘焙(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        综合(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        肉制品(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        果干(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其它(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        零食(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        礼盒(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        干果(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其他(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        花茶(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        合计(%)</t>
-  </si>
-  <si>
-    <t>收入构成</t>
-  </si>
-  <si>
-    <t>毛利构成</t>
-  </si>
-  <si>
-    <t>占营业收入比</t>
-  </si>
-  <si>
-    <t>数据来源：同花顺iFinD</t>
-  </si>
-  <si>
-    <t>年份</t>
   </si>
   <si>
     <t>坚果</t>
@@ -345,13 +204,159 @@
       <t>中报</t>
     </r>
   </si>
+  <si>
+    <t>按产品(项目)分类(证券代码：300783.SZ 名称：三只松鼠)</t>
+  </si>
+  <si>
+    <t>（单位：万元）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2022 中报</t>
+  </si>
+  <si>
+    <t>2021 年报</t>
+  </si>
+  <si>
+    <t>2020 年报</t>
+  </si>
+  <si>
+    <t>2019 年报</t>
+  </si>
+  <si>
+    <t>2018 年报</t>
+  </si>
+  <si>
+    <t>2017 年报</t>
+  </si>
+  <si>
+    <t>2016 年报</t>
+  </si>
+  <si>
+    <t>2015 年报</t>
+  </si>
+  <si>
+    <t>2014 年报</t>
+  </si>
+  <si>
+    <t>点击浏览</t>
+  </si>
+  <si>
+    <t>货币类型</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        坚果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其他业务</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        烘焙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        综合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        肉制品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        果干</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其它</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        零食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        礼盒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        干果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        花茶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        合计</t>
+  </si>
+  <si>
+    <t>营业成本</t>
+  </si>
+  <si>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t>毛利率(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        坚果(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其他业务(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        烘焙(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        综合(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        肉制品(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        果干(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其它(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        零食(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        礼盒(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        干果(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其他(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        花茶(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        合计(%)</t>
+  </si>
+  <si>
+    <t>收入构成</t>
+  </si>
+  <si>
+    <t>毛利构成</t>
+  </si>
+  <si>
+    <t>占营业收入比</t>
+  </si>
+  <si>
+    <t>数据来源：同花顺iFinD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,7 +387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -427,71 +432,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,10 +502,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -543,71 +543,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,7 +635,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -658,11 +658,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -671,13 +671,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -687,7 +687,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -696,7 +696,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -705,7 +705,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -713,10 +713,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -781,71 +781,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.140625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>92447.27</v>
@@ -854,7 +851,7 @@
         <v>81184.45</v>
       </c>
       <c r="D2" s="8">
-        <v>277.16</v>
+        <v>277.16000000000003</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
@@ -878,12 +875,12 @@
         <v>7828.06</v>
       </c>
       <c r="L2" s="8">
-        <v>2265.55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="16" t="s">
-        <v>62</v>
+        <v>2265.5500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="7">
         <v>204306.2</v>
@@ -919,9 +916,9 @@
         <v>2340.19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="16" t="s">
-        <v>63</v>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="7">
         <v>442269.62</v>
@@ -930,7 +927,7 @@
         <v>307824.01</v>
       </c>
       <c r="D4" s="8">
-        <v>29317.92</v>
+        <v>29317.919999999998</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -957,9 +954,9 @@
         <v>3017.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="16" t="s">
-        <v>64</v>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>555418.66</v>
@@ -968,7 +965,7 @@
         <v>350545.22</v>
       </c>
       <c r="D5" s="8">
-        <v>41507.88</v>
+        <v>41507.879999999997</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -983,7 +980,7 @@
         <v>140.91</v>
       </c>
       <c r="I5" s="8">
-        <v>140853.86</v>
+        <v>140853.85999999999</v>
       </c>
       <c r="J5" s="8">
         <v>7515.17</v>
@@ -995,9 +992,9 @@
         <v>1225.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="16" t="s">
-        <v>65</v>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>700116.7</v>
@@ -1033,9 +1030,9 @@
         <v>424.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="16" t="s">
-        <v>66</v>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <v>1017301.71</v>
@@ -1047,7 +1044,7 @@
         <v>84402.71</v>
       </c>
       <c r="E7" s="8">
-        <v>163189.14</v>
+        <v>163189.14000000001</v>
       </c>
       <c r="F7" s="8">
         <v>92744.39</v>
@@ -1071,9 +1068,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="16" t="s">
-        <v>67</v>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="7">
         <v>979412.32</v>
@@ -1085,7 +1082,7 @@
         <v>77340.14</v>
       </c>
       <c r="E8" s="8">
-        <v>161773.48</v>
+        <v>161773.48000000001</v>
       </c>
       <c r="F8" s="8">
         <v>114838.9</v>
@@ -1109,9 +1106,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="16" t="s">
-        <v>68</v>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="7">
         <v>977021.53</v>
@@ -1123,7 +1120,7 @@
         <v>60227.81</v>
       </c>
       <c r="E9" s="8">
-        <v>162949.76</v>
+        <v>162949.76000000001</v>
       </c>
       <c r="F9" s="8">
         <v>123732.37</v>
@@ -1132,7 +1129,7 @@
         <v>104312.69</v>
       </c>
       <c r="H9" s="8">
-        <v>19950.44</v>
+        <v>19950.439999999999</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -1147,9 +1144,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="16" t="s">
-        <v>69</v>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>411387.48</v>
@@ -1170,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>65325.44</v>
+        <v>65325.440000000002</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -1191,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1199,147 +1196,122 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="11" width="56.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="56.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B6" s="7">
         <v>411387.48</v>
@@ -1369,9 +1341,9 @@
         <v>92447.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8">
         <v>236492.36</v>
@@ -1401,73 +1373,73 @@
         <v>81184.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8">
-        <v>65325.44</v>
+        <v>65325.440000000002</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8">
         <v>60604.99</v>
       </c>
       <c r="C9" s="8">
-        <v>162949.76</v>
+        <v>162949.76000000001</v>
       </c>
       <c r="D9" s="8">
-        <v>161773.48</v>
+        <v>161773.48000000001</v>
       </c>
       <c r="E9" s="8">
-        <v>163189.14</v>
+        <v>163189.14000000001</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8">
         <v>48964.69</v>
@@ -1482,27 +1454,27 @@
         <v>92744.39</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8">
         <v>104312.69</v>
@@ -1514,27 +1486,27 @@
         <v>123206.11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8">
         <v>60227.81</v>
@@ -1549,27 +1521,27 @@
         <v>49275.64</v>
       </c>
       <c r="G12" s="8">
-        <v>41507.88</v>
+        <v>41507.879999999997</v>
       </c>
       <c r="H12" s="8">
-        <v>29317.92</v>
+        <v>29317.919999999998</v>
       </c>
       <c r="I12" s="8">
         <v>9277.15</v>
       </c>
       <c r="J12" s="8">
-        <v>277.16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>277.16000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8">
-        <v>19950.44</v>
+        <v>19950.439999999999</v>
       </c>
       <c r="D13" s="8">
         <v>10868.23</v>
@@ -1578,42 +1550,42 @@
         <v>9438.23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8">
         <v>249857.75</v>
       </c>
       <c r="G14" s="8">
-        <v>140853.86</v>
+        <v>140853.85999999999</v>
       </c>
       <c r="H14" s="8">
         <v>86406.9</v>
@@ -1625,21 +1597,21 @@
         <v>852.49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F15" s="8">
         <v>18719.57</v>
@@ -1651,27 +1623,27 @@
         <v>2487.77</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F16" s="8">
         <v>9810.6</v>
@@ -1689,21 +1661,21 @@
         <v>7828.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F17" s="8">
         <v>120.84</v>
@@ -1715,27 +1687,27 @@
         <v>1.74</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8">
         <v>424.71</v>
@@ -1750,12 +1722,12 @@
         <v>2340.19</v>
       </c>
       <c r="J18" s="8">
-        <v>2265.55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>2265.5500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B19" s="8">
         <v>411387.48</v>
@@ -1785,15 +1757,15 @@
         <v>92407.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B20" s="7">
         <v>296778.75</v>
       </c>
       <c r="C20" s="7">
-        <v>689940.48</v>
+        <v>689940.47999999998</v>
       </c>
       <c r="D20" s="7">
         <v>745379.45</v>
@@ -1817,9 +1789,9 @@
         <v>70120.95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:10" ht="19.5" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B21" s="8">
         <v>171764.22</v>
@@ -1834,7 +1806,7 @@
         <v>402601.61</v>
       </c>
       <c r="F21" s="8">
-        <v>264892.84</v>
+        <v>264892.84000000003</v>
       </c>
       <c r="G21" s="8">
         <v>255567.87</v>
@@ -1849,41 +1821,41 @@
         <v>62717.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B22" s="8">
         <v>47354.49</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B23" s="8">
         <v>45176.03</v>
@@ -1898,59 +1870,59 @@
         <v>116169.97</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B24" s="8">
         <v>32484.01</v>
       </c>
       <c r="C24" s="8">
-        <v>82588.16</v>
+        <v>82588.160000000003</v>
       </c>
       <c r="D24" s="8">
-        <v>79171.32</v>
+        <v>79171.320000000007</v>
       </c>
       <c r="E24" s="8">
         <v>61105.8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8">
         <v>75183.73</v>
@@ -1962,27 +1934,27 @@
         <v>88548.35</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C26" s="8">
         <v>44058.38</v>
@@ -1994,13 +1966,13 @@
         <v>60554.43</v>
       </c>
       <c r="F26" s="8">
-        <v>37150.38</v>
+        <v>37150.379999999997</v>
       </c>
       <c r="G26" s="8">
         <v>29518.3</v>
       </c>
       <c r="H26" s="8">
-        <v>20545.92</v>
+        <v>20545.919999999998</v>
       </c>
       <c r="I26" s="8">
         <v>7450.14</v>
@@ -2009,12 +1981,12 @@
         <v>201.87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:10" ht="19.5" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8">
         <v>11243.19</v>
@@ -2023,39 +1995,39 @@
         <v>5757.04</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F28" s="8">
         <v>177518.8</v>
@@ -2073,21 +2045,21 @@
         <v>678.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F29" s="8">
         <v>15797.52</v>
@@ -2099,27 +2071,27 @@
         <v>1736.02</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F30" s="8">
         <v>5943.78</v>
@@ -2137,21 +2109,21 @@
         <v>5346.41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F31" s="8">
         <v>111.07</v>
@@ -2163,27 +2135,27 @@
         <v>12.2</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F32" s="8">
         <v>196.41</v>
@@ -2201,15 +2173,15 @@
         <v>1136.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:10" ht="19.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B33" s="8">
         <v>296778.75</v>
       </c>
       <c r="C33" s="8">
-        <v>689940.48</v>
+        <v>689940.47999999998</v>
       </c>
       <c r="D33" s="8">
         <v>745379.45</v>
@@ -2233,9 +2205,9 @@
         <v>70080.89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:10" ht="19.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B34" s="7">
         <v>114608.73</v>
@@ -2265,21 +2237,21 @@
         <v>22326.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:10" ht="19.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B35" s="8">
         <v>64728.14</v>
       </c>
       <c r="C35" s="8">
-        <v>147406.7</v>
+        <v>147406.70000000001</v>
       </c>
       <c r="D35" s="8">
         <v>108036.88</v>
       </c>
       <c r="E35" s="8">
-        <v>141719.52</v>
+        <v>141719.51999999999</v>
       </c>
       <c r="F35" s="8">
         <v>104736.82</v>
@@ -2297,41 +2269,41 @@
         <v>18467.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:10" ht="19.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8">
         <v>17970.95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B37" s="8">
         <v>15428.96</v>
@@ -2346,24 +2318,24 @@
         <v>47019.17</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B38" s="8">
         <v>16480.68</v>
@@ -2378,27 +2350,27 @@
         <v>31638.59</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8">
         <v>29128.95</v>
@@ -2407,30 +2379,30 @@
         <v>29809.64</v>
       </c>
       <c r="E39" s="8">
-        <v>34657.76</v>
+        <v>34657.760000000002</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C40" s="8">
         <v>16169.43</v>
@@ -2454,56 +2426,56 @@
         <v>1827.01</v>
       </c>
       <c r="J40" s="8">
-        <v>75.29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+        <v>75.290000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C41" s="8">
         <v>8707.25</v>
       </c>
       <c r="D41" s="8">
-        <v>5111.19</v>
+        <v>5111.1899999999996</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F42" s="8">
         <v>72338.95</v>
@@ -2521,21 +2493,21 @@
         <v>173.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:10" ht="19.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F43" s="8">
         <v>2922.05</v>
@@ -2547,33 +2519,33 @@
         <v>751.75</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F44" s="8">
         <v>3866.82</v>
       </c>
       <c r="G44" s="8">
-        <v>4728.4</v>
+        <v>4728.3999999999996</v>
       </c>
       <c r="H44" s="8">
         <v>5048.74</v>
@@ -2585,21 +2557,21 @@
         <v>2481.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:10" ht="19.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F45" s="8">
         <v>9.77</v>
@@ -2611,33 +2583,33 @@
         <v>-10.46</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.5" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F46" s="8">
         <v>228.3</v>
       </c>
       <c r="G46" s="8">
-        <v>609.43</v>
+        <v>609.42999999999995</v>
       </c>
       <c r="H46" s="8">
         <v>1404.49</v>
@@ -2649,9 +2621,9 @@
         <v>1128.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:10" ht="19.5" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B47" s="8">
         <v>114608.73</v>
@@ -2681,9 +2653,9 @@
         <v>22326.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:10" ht="19.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B48" s="7">
         <v>27.86</v>
@@ -2713,9 +2685,9 @@
         <v>24.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:10" ht="19.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B49" s="8">
         <v>27.37</v>
@@ -2745,41 +2717,41 @@
         <v>22.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:10" ht="19.5" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B50" s="8">
         <v>27.51</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B51" s="8">
         <v>25.46</v>
@@ -2794,27 +2766,27 @@
         <v>28.81</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B52" s="8">
-        <v>33.66</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="C52" s="8">
         <v>33.25</v>
@@ -2826,27 +2798,27 @@
         <v>34.11</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C53" s="8">
         <v>27.92</v>
@@ -2858,27 +2830,27 @@
         <v>28.13</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C54" s="8">
         <v>26.85</v>
@@ -2899,18 +2871,18 @@
         <v>29.92</v>
       </c>
       <c r="I54" s="8">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="J54" s="8">
         <v>27.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:10" ht="19.5" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C55" s="8">
         <v>43.64</v>
@@ -2919,39 +2891,39 @@
         <v>47.03</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F56" s="8">
         <v>28.95</v>
@@ -2960,7 +2932,7 @@
         <v>31.9</v>
       </c>
       <c r="H56" s="8">
-        <v>34.41</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="I56" s="8">
         <v>28.51</v>
@@ -2969,21 +2941,21 @@
         <v>20.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:10" ht="19.5" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F57" s="8">
         <v>15.61</v>
@@ -2995,30 +2967,30 @@
         <v>30.22</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F58" s="8">
-        <v>39.41</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="G58" s="8">
         <v>41.73</v>
@@ -3033,21 +3005,21 @@
         <v>31.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:10" ht="19.5" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F59" s="8">
         <v>8.09</v>
@@ -3059,27 +3031,27 @@
         <v>-601.15</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F60" s="8">
         <v>53.75</v>
@@ -3097,9 +3069,9 @@
         <v>49.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:10" ht="19.5" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B61" s="8">
         <v>27.86</v>
@@ -3129,9 +3101,9 @@
         <v>24.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:10" ht="19.5" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3143,9 +3115,9 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:10" ht="19.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B63" s="8">
         <v>57.49</v>
@@ -3175,41 +3147,41 @@
         <v>87.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:10" ht="19.5" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B64" s="8">
         <v>15.88</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="19.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B65" s="8">
         <v>14.73</v>
@@ -3224,24 +3196,24 @@
         <v>16.04</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="19.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B66" s="8">
         <v>11.9</v>
@@ -3253,30 +3225,30 @@
         <v>11.73</v>
       </c>
       <c r="E66" s="8">
-        <v>9.12</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="19.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C67" s="8">
         <v>10.68</v>
@@ -3288,27 +3260,27 @@
         <v>12.11</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="19.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C68" s="8">
         <v>6.16</v>
@@ -3317,7 +3289,7 @@
         <v>7.9</v>
       </c>
       <c r="E68" s="8">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F68" s="8">
         <v>7.06</v>
@@ -3335,62 +3307,62 @@
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:10" ht="19.5" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C69" s="8">
         <v>2.04</v>
       </c>
       <c r="D69" s="8">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E69" s="8">
         <v>0.93</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="19.5" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F70" s="8">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G70" s="8">
         <v>25.47</v>
       </c>
       <c r="H70" s="8">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I70" s="8">
         <v>8.58</v>
@@ -3399,21 +3371,21 @@
         <v>0.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:10" ht="19.5" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F71" s="8">
         <v>2.68</v>
@@ -3422,36 +3394,36 @@
         <v>1.36</v>
       </c>
       <c r="H71" s="8">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="19.5" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F72" s="8">
         <v>1.41</v>
       </c>
       <c r="G72" s="8">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H72" s="8">
         <v>2.67</v>
@@ -3460,24 +3432,24 @@
         <v>5.29</v>
       </c>
       <c r="J72" s="8">
-        <v>8.47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="19.5" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F73" s="8">
         <v>0.02</v>
@@ -3489,27 +3461,27 @@
         <v>0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="19.5" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F74" s="8">
         <v>0.06</v>
@@ -3521,15 +3493,15 @@
         <v>0.68</v>
       </c>
       <c r="I74" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J74" s="8">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="19.5" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B75" s="8">
         <v>100</v>
@@ -3559,9 +3531,9 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:10" ht="19.5" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3573,9 +3545,9 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:10" ht="19.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B77" s="8">
         <v>56.48</v>
@@ -3605,41 +3577,41 @@
         <v>82.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:10" ht="19.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B78" s="8">
         <v>15.68</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="19.5" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B79" s="8">
         <v>13.46</v>
@@ -3651,27 +3623,27 @@
         <v>16.13</v>
       </c>
       <c r="E79" s="8">
-        <v>16.31</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="19.5" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B80" s="8">
         <v>14.38</v>
@@ -3686,27 +3658,27 @@
         <v>10.97</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="19.5" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C81" s="8">
         <v>10.15</v>
@@ -3718,27 +3690,27 @@
         <v>12.02</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="19.5" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C82" s="8">
         <v>5.63</v>
@@ -3765,53 +3737,53 @@
         <v>0.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:10" ht="19.5" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C83" s="8">
         <v>3.03</v>
       </c>
       <c r="D83" s="8">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="19.5" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F84" s="8">
         <v>36.86</v>
@@ -3829,21 +3801,21 @@
         <v>0.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:10" ht="19.5" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F85" s="8">
         <v>1.49</v>
@@ -3852,30 +3824,30 @@
         <v>1.03</v>
       </c>
       <c r="H85" s="8">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="19.5" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F86" s="8">
         <v>1.97</v>
@@ -3893,21 +3865,21 @@
         <v>11.12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:10" ht="19.5" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F87" s="8">
         <v>0</v>
@@ -3919,27 +3891,27 @@
         <v>-0.01</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="19.5" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F88" s="8">
         <v>0.12</v>
@@ -3954,12 +3926,12 @@
         <v>2.09</v>
       </c>
       <c r="J88" s="8">
-        <v>5.06</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="19.5" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B89" s="8">
         <v>100</v>
@@ -3989,9 +3961,9 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:10" ht="19.5" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4003,9 +3975,9 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:10" ht="19.5" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B91" s="8">
         <v>57.49</v>
@@ -4026,50 +3998,50 @@
         <v>63.11</v>
       </c>
       <c r="H91" s="8">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="I91" s="8">
-        <v>80.29</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="J91" s="8">
         <v>87.82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row r="92" spans="1:10" ht="19.5" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B92" s="8">
         <v>15.88</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="19.5" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B93" s="8">
         <v>14.73</v>
@@ -4084,24 +4056,24 @@
         <v>16.04</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="19.5" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B94" s="8">
         <v>11.9</v>
@@ -4113,30 +4085,30 @@
         <v>11.73</v>
       </c>
       <c r="E94" s="8">
-        <v>9.12</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="19.5" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C95" s="8">
         <v>10.68</v>
@@ -4148,27 +4120,27 @@
         <v>12.11</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="19.5" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C96" s="8">
         <v>6.16</v>
@@ -4177,7 +4149,7 @@
         <v>7.9</v>
       </c>
       <c r="E96" s="8">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F96" s="8">
         <v>7.04</v>
@@ -4195,53 +4167,53 @@
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row r="97" spans="1:10" ht="19.5" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C97" s="8">
         <v>2.04</v>
       </c>
       <c r="D97" s="8">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E97" s="8">
         <v>0.93</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="19.5" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F98" s="8">
         <v>35.69</v>
@@ -4259,21 +4231,21 @@
         <v>0.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row r="99" spans="1:10" ht="19.5" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F99" s="8">
         <v>2.67</v>
@@ -4282,30 +4254,30 @@
         <v>1.35</v>
       </c>
       <c r="H99" s="8">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F100" s="8">
         <v>1.4</v>
@@ -4320,24 +4292,24 @@
         <v>5.28</v>
       </c>
       <c r="J100" s="8">
-        <v>8.47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="19.5" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F101" s="8">
         <v>0.02</v>
@@ -4349,27 +4321,27 @@
         <v>0</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F102" s="8">
         <v>0.06</v>
@@ -4381,15 +4353,15 @@
         <v>0.68</v>
       </c>
       <c r="I102" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J102" s="8">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="19.5" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B103" s="8">
         <v>100</v>
@@ -4419,31 +4391,11 @@
         <v>99.96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
-      <c r="A104" s="9"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row r="104" spans="1:10" ht="19.5" customHeight="1"/>
+    <row r="105" spans="1:10" ht="19.5" customHeight="1">
       <c r="A105" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
